--- a/Solución/Entregable Tesis/Calculo de tolvas.xlsx
+++ b/Solución/Entregable Tesis/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -14,56 +14,57 @@
     <sheet name="Calculo de esfuerzos tolva" sheetId="8" r:id="rId5"/>
     <sheet name="Cálculo contenedor" sheetId="4" r:id="rId6"/>
     <sheet name="Dimensionado tolva mineral" sheetId="6" r:id="rId7"/>
-    <sheet name="Dimensionado tolva levadura" sheetId="7" r:id="rId8"/>
+    <sheet name="Formas para tolvas" sheetId="9" r:id="rId8"/>
+    <sheet name="Dimensionado tolva levadura" sheetId="7" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11,'Cálculo contenedor'!$B$11,'Cálculo contenedor'!$C$11</definedName>
     <definedName name="solver_adj" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$W$15:$Y$15</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$27,'Calculo tolva romana'!$U$27,'Calculo tolva romana'!$V$27</definedName>
-    <definedName name="solver_adj" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$I$15:$J$15</definedName>
+    <definedName name="solver_adj" localSheetId="8" hidden="1">'Dimensionado tolva levadura'!$I$15:$J$15</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$I$15:$J$15</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
-    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="8" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="5" hidden="1">'Cálculo contenedor'!$A$11</definedName>
     <definedName name="solver_lhs1" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$20</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$20</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$27:$W$27</definedName>
-    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$20</definedName>
+    <definedName name="solver_lhs1" localSheetId="8" hidden="1">'Dimensionado tolva levadura'!$J$20</definedName>
     <definedName name="solver_lhs1" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$20</definedName>
     <definedName name="solver_lhs2" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$11</definedName>
     <definedName name="solver_lhs2" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$23</definedName>
     <definedName name="solver_lhs2" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$23</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$33</definedName>
-    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$23</definedName>
+    <definedName name="solver_lhs2" localSheetId="8" hidden="1">'Dimensionado tolva levadura'!$J$23</definedName>
     <definedName name="solver_lhs2" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$23</definedName>
     <definedName name="solver_lhs3" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$15</definedName>
     <definedName name="solver_lhs3" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$J$23</definedName>
@@ -81,79 +82,79 @@
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
-    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="8" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
-    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="8" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">5</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">4</definedName>
-    <definedName name="solver_num" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_num" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Cálculo contenedor'!$B$21</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">'Cálculo contenedor CC'!$X$26</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Cálculo contenedor Concentrado'!$X$26</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'Calculo tolva romana'!$S$30</definedName>
-    <definedName name="solver_opt" localSheetId="7" hidden="1">'Dimensionado tolva levadura'!$J$30</definedName>
+    <definedName name="solver_opt" localSheetId="8" hidden="1">'Dimensionado tolva levadura'!$J$30</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Dimensionado tolva mineral'!$J$30</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
-    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="8" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_rel1" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel1" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rel2" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rel2" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rel3" localSheetId="1" hidden="1">2</definedName>
@@ -171,13 +172,13 @@
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs1" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="1" hidden="1">0</definedName>
@@ -195,61 +196,61 @@
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
-    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="8" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
-    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="8" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
-    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="8" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
-    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="8" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
-    <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="8" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">15000</definedName>
-    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="8" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
-    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="8" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="254">
   <si>
     <t>Altura deseada</t>
   </si>
@@ -937,6 +938,93 @@
   </si>
   <si>
     <t>Sujeto a restricción de masa</t>
+  </si>
+  <si>
+    <t>Se pretende evaluar el desempeño de dos tolvas, que según la literatura son las mejores para el contenedor de levadura. Así mismo se evaluó el mismo desempeño para otros materiales.</t>
+  </si>
+  <si>
+    <t>Se evaluó de la sigueinte manera.</t>
+  </si>
+  <si>
+    <t>1. Medir la masa de salida dada una masa inicial para calcular una diferencia de masas.</t>
+  </si>
+  <si>
+    <t>2. Medir el tiempo que le toma descargar todo el material.</t>
+  </si>
+  <si>
+    <t>3. Medir 10 muestras para cada uno.</t>
+  </si>
+  <si>
+    <t>No.</t>
+  </si>
+  <si>
+    <t>Cantidad</t>
+  </si>
+  <si>
+    <t>Grasa de sobrepaso</t>
+  </si>
+  <si>
+    <t>Tiempo (s).</t>
+  </si>
+  <si>
+    <t>Diferencia (g).</t>
+  </si>
+  <si>
+    <t>Masa (g).</t>
+  </si>
+  <si>
+    <t>Cantidad (g)</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>*****</t>
+  </si>
+  <si>
+    <t>Nota</t>
+  </si>
+  <si>
+    <t>No se realizaron pruebas con el mineral, simplemente porque no fluje a través del agujero.</t>
+  </si>
+  <si>
+    <t>Secuestrante</t>
+  </si>
+  <si>
+    <t>No fluje a traves de esta geometría</t>
+  </si>
+  <si>
+    <t>Boca de 1in x  6 cm G1</t>
+  </si>
+  <si>
+    <t>Condicion</t>
+  </si>
+  <si>
+    <t>592 con plato</t>
+  </si>
+  <si>
+    <t>Fluyó la parte cuadrada</t>
+  </si>
+  <si>
+    <t>Fluyó la parte cuadrada primero, luego todo</t>
+  </si>
+  <si>
+    <t>Fluyó todo, se llenóen proporciones 2:3, 3 la parte ranurada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se llenó todo y fluyó la parte ranirada. </t>
+  </si>
+  <si>
+    <t>Se decidio hacer pruebas con la forma 3</t>
+  </si>
+  <si>
+    <t>Boca de 1in x  6 cm G3</t>
+  </si>
+  <si>
+    <t>500 sin plato</t>
   </si>
 </sst>
 </file>
@@ -5228,10 +5316,917 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43592</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" t="s">
+        <v>231</v>
+      </c>
+      <c r="I10">
+        <v>500</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" t="s">
+        <v>232</v>
+      </c>
+      <c r="M10" t="s">
+        <v>231</v>
+      </c>
+      <c r="N10">
+        <v>500</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>242</v>
+      </c>
+      <c r="R10" t="s">
+        <v>231</v>
+      </c>
+      <c r="S10">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="F11" t="s">
+        <v>230</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>234</v>
+      </c>
+      <c r="I11" t="s">
+        <v>233</v>
+      </c>
+      <c r="K11" t="s">
+        <v>230</v>
+      </c>
+      <c r="L11" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" t="s">
+        <v>234</v>
+      </c>
+      <c r="N11" t="s">
+        <v>233</v>
+      </c>
+      <c r="P11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>235</v>
+      </c>
+      <c r="R11" t="s">
+        <v>234</v>
+      </c>
+      <c r="S11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>486</v>
+      </c>
+      <c r="C12">
+        <f>$D$10-B12</f>
+        <v>14</v>
+      </c>
+      <c r="D12">
+        <v>5.2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>499</v>
+      </c>
+      <c r="N12">
+        <v>5.62</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>488</v>
+      </c>
+      <c r="D13">
+        <v>5.19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>500</v>
+      </c>
+      <c r="N13">
+        <v>5.55</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="D14">
+        <v>5.13</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>500</v>
+      </c>
+      <c r="N14">
+        <v>5.48</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>4.91</v>
+      </c>
+      <c r="D15">
+        <v>5.05</v>
+      </c>
+      <c r="E15" t="s">
+        <v>238</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>500</v>
+      </c>
+      <c r="N15">
+        <v>5.57</v>
+      </c>
+      <c r="P15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16">
+        <v>4.97</v>
+      </c>
+      <c r="D16">
+        <v>5.37</v>
+      </c>
+      <c r="E16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>4.99</v>
+      </c>
+      <c r="N16">
+        <v>5.62</v>
+      </c>
+      <c r="P16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>4.95</v>
+      </c>
+      <c r="D17">
+        <v>5.39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <v>499</v>
+      </c>
+      <c r="N17">
+        <v>5.66</v>
+      </c>
+      <c r="P17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="D18">
+        <v>5.09</v>
+      </c>
+      <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18">
+        <v>7</v>
+      </c>
+      <c r="K18">
+        <v>7</v>
+      </c>
+      <c r="L18">
+        <v>500</v>
+      </c>
+      <c r="N18">
+        <v>5.5</v>
+      </c>
+      <c r="P18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>494</v>
+      </c>
+      <c r="D19">
+        <v>5.61</v>
+      </c>
+      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>8</v>
+      </c>
+      <c r="L19">
+        <v>500</v>
+      </c>
+      <c r="N19">
+        <v>5.57</v>
+      </c>
+      <c r="P19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20">
+        <v>496</v>
+      </c>
+      <c r="D20">
+        <v>5.51</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>500</v>
+      </c>
+      <c r="N20">
+        <v>5.73</v>
+      </c>
+      <c r="P20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>492</v>
+      </c>
+      <c r="D21">
+        <v>5.72</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="K21">
+        <v>10</v>
+      </c>
+      <c r="L21">
+        <v>500</v>
+      </c>
+      <c r="N21">
+        <v>5.47</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" t="s">
+        <v>241</v>
+      </c>
+      <c r="P22" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>244</v>
+      </c>
+      <c r="K25" t="s">
+        <v>252</v>
+      </c>
+      <c r="P25" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>236</v>
+      </c>
+      <c r="D26">
+        <v>500</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>242</v>
+      </c>
+      <c r="H26" t="s">
+        <v>231</v>
+      </c>
+      <c r="I26" t="s">
+        <v>246</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" t="s">
+        <v>242</v>
+      </c>
+      <c r="M26" t="s">
+        <v>231</v>
+      </c>
+      <c r="N26" t="s">
+        <v>246</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>62</v>
+      </c>
+      <c r="R26" t="s">
+        <v>231</v>
+      </c>
+      <c r="S26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>230</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="s">
+        <v>233</v>
+      </c>
+      <c r="F27" t="s">
+        <v>230</v>
+      </c>
+      <c r="G27" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" t="s">
+        <v>245</v>
+      </c>
+      <c r="I27" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>235</v>
+      </c>
+      <c r="M27" t="s">
+        <v>245</v>
+      </c>
+      <c r="N27" t="s">
+        <v>233</v>
+      </c>
+      <c r="P27" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>235</v>
+      </c>
+      <c r="R27" t="s">
+        <v>234</v>
+      </c>
+      <c r="S27" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>493</v>
+      </c>
+      <c r="C28">
+        <f>$D$10-B28</f>
+        <v>7</v>
+      </c>
+      <c r="D28">
+        <v>4.84</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>588</v>
+      </c>
+      <c r="N28">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>496</v>
+      </c>
+      <c r="S28">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29">
+        <v>480</v>
+      </c>
+      <c r="D29">
+        <v>4.68</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="J29" t="s">
+        <v>247</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>587</v>
+      </c>
+      <c r="N29">
+        <v>9.67</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+      <c r="Q29">
+        <v>497</v>
+      </c>
+      <c r="S29">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>490</v>
+      </c>
+      <c r="D30">
+        <v>4.62</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>247</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>586</v>
+      </c>
+      <c r="N30">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>499</v>
+      </c>
+      <c r="S30">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>495</v>
+      </c>
+      <c r="D31">
+        <v>4.79</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="G31">
+        <v>590</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>587</v>
+      </c>
+      <c r="N31">
+        <v>11.94</v>
+      </c>
+      <c r="P31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32">
+        <v>498</v>
+      </c>
+      <c r="D32">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E32" t="s">
+        <v>238</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="I32">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="J32" t="s">
+        <v>248</v>
+      </c>
+      <c r="K32">
+        <v>5</v>
+      </c>
+      <c r="L32">
+        <v>589</v>
+      </c>
+      <c r="N32">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="P32">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33">
+        <v>486</v>
+      </c>
+      <c r="D33">
+        <v>4.51</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>247</v>
+      </c>
+      <c r="K33">
+        <v>6</v>
+      </c>
+      <c r="L33">
+        <v>588</v>
+      </c>
+      <c r="N33">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="P33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>480</v>
+      </c>
+      <c r="D34">
+        <v>4.59</v>
+      </c>
+      <c r="F34">
+        <v>7</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>585</v>
+      </c>
+      <c r="N34">
+        <v>8.42</v>
+      </c>
+      <c r="P34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8</v>
+      </c>
+      <c r="B35">
+        <v>482</v>
+      </c>
+      <c r="D35">
+        <v>4.58</v>
+      </c>
+      <c r="E35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>10.17</v>
+      </c>
+      <c r="J35" t="s">
+        <v>249</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>589</v>
+      </c>
+      <c r="N35">
+        <v>8.92</v>
+      </c>
+      <c r="P35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>9</v>
+      </c>
+      <c r="B36">
+        <v>496</v>
+      </c>
+      <c r="D36">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="E36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36">
+        <v>9</v>
+      </c>
+      <c r="J36" t="s">
+        <v>250</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36">
+        <v>590</v>
+      </c>
+      <c r="N36">
+        <v>9.68</v>
+      </c>
+      <c r="P36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>498</v>
+      </c>
+      <c r="D37">
+        <v>469</v>
+      </c>
+      <c r="F37">
+        <v>10</v>
+      </c>
+      <c r="J37" t="s">
+        <v>251</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>588</v>
+      </c>
+      <c r="N37">
+        <v>9.44</v>
+      </c>
+      <c r="P37">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H22" sqref="G22:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Solución/Entregable Tesis/Calculo de tolvas.xlsx
+++ b/Solución/Entregable Tesis/Calculo de tolvas.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="5" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cálculo contenedor Concentrado" sheetId="1" r:id="rId1"/>
@@ -1567,7 +1567,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="Z1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
@@ -2276,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Y15" sqref="Y15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4999,7 +4999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
@@ -5318,7 +5318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D16" workbookViewId="0">
+    <sheetView topLeftCell="D16" workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
